--- a/biology/Zoologie/Charinus_miskito/Charinus_miskito.xlsx
+++ b/biology/Zoologie/Charinus_miskito/Charinus_miskito.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus miskito est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du département de San Andrés et Providencia au Colombie[1]. Elle se rencontre sur l'île de la Providence.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du département de San Andrés et Providencia au Colombie. Elle se rencontre sur l'île de la Providence.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,59 mm de long sur 3,52 mm et celle des mâles 2,44 mm de long sur 3,28 mm et 2,44 mm de long sur 3,40 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,59 mm de long sur 3,52 mm et celle des mâles 2,44 mm de long sur 3,28 mm et 2,44 mm de long sur 3,40 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur des Mosquitos[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur des Mosquitos.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Miranda, Giupponi, Prendini &amp; Scharff, 2021 : « Systematic revision of the pantropical whip spider family Charinidae Quintero, 1986 (Arachnida, Amblypygi). » European Journal of Taxonomy, no 772, p. 1–409 (texte intégral).</t>
         </is>
